--- a/十月销售数据/10月份提成表.xlsx
+++ b/十月销售数据/10月份提成表.xlsx
@@ -326,7 +326,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沌阳</t>
+    <t>汉南</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/十月销售数据/10月份提成表.xlsx
+++ b/十月销售数据/10月份提成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,10 +315,6 @@
   </si>
   <si>
     <t>100元销售数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1217,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="K16" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1249,7 +1245,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="46"/>
@@ -3686,8 +3682,9 @@
       </c>
       <c r="T37" s="29"/>
       <c r="U37" s="30"/>
-      <c r="V37" s="32" t="s">
-        <v>75</v>
+      <c r="V37" s="32">
+        <f>E41+K41</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
@@ -3696,7 +3693,7 @@
       </c>
       <c r="B38" s="52"/>
       <c r="C38" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="18">
         <v>0</v>
